--- a/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
+++ b/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951340D0-4C0D-46DA-BF0C-A7778F6DDFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06B078-66A2-4E01-A0F1-B422A36E2B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="3950" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="138">
   <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
@@ -986,24 +986,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>INO　Lｻｲｽﾞ　分割</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>ブンカツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>40前期ｱﾙﾌｧｰﾄﾞ</t>
     <rPh sb="2" eb="3">
       <t>マエ</t>
@@ -1018,6 +1000,20 @@
     <rPh sb="2" eb="3">
       <t>バン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TZ 運転席ｺﾞﾐ箱</t>
+    <rPh sb="3" eb="6">
+      <t>ウンテンセキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TZ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1725,12 +1721,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV56"/>
+  <dimension ref="A1:BV57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3064,16 +3060,16 @@
     </row>
     <row r="18" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="B18" s="12">
         <v>501</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D18" s="7">
-        <v>18370</v>
+        <v>4200</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3148,16 +3144,16 @@
     </row>
     <row r="19" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
-        <v>45189</v>
+        <v>45182</v>
       </c>
       <c r="B19" s="12">
-        <v>651</v>
+        <v>501</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" s="7">
-        <v>2414</v>
+        <v>18370</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3232,16 +3228,16 @@
     </row>
     <row r="20" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28">
-        <v>45192</v>
+        <v>45189</v>
       </c>
       <c r="B20" s="12">
         <v>651</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D20" s="7">
-        <v>3866</v>
+        <v>2414</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3316,16 +3312,16 @@
     </row>
     <row r="21" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
-        <v>45193</v>
+        <v>45192</v>
       </c>
       <c r="B21" s="12">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D21" s="7">
-        <v>907</v>
+        <v>3866</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3406,10 +3402,10 @@
         <v>658</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -3490,7 +3486,7 @@
         <v>658</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -3567,10 +3563,14 @@
       <c r="BV23" s="4"/>
     </row>
     <row r="24" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33" t="s">
-        <v>118</v>
+      <c r="A24" s="28">
+        <v>45193</v>
+      </c>
+      <c r="B24" s="12">
+        <v>658</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -3650,10 +3650,10 @@
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
       <c r="C25" s="33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7">
-        <v>27500</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3730,17 +3730,13 @@
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="7">
-        <v>4200</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>27500</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3813,10 +3809,18 @@
     <row r="27" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -3889,12 +3893,8 @@
     <row r="28" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3970,17 +3970,13 @@
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
       <c r="C29" s="33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" s="7">
-        <v>4264</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -4053,14 +4049,18 @@
     <row r="30" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="34" t="s">
-        <v>119</v>
+      <c r="C30" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+        <v>4264</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -4133,8 +4133,12 @@
     <row r="31" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4209,7 +4213,7 @@
     <row r="32" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -4893,7 +4897,7 @@
     <row r="41" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -5045,7 +5049,7 @@
     <row r="43" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="29"/>
-      <c r="C43" s="34"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -5121,7 +5125,7 @@
     <row r="44" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -5803,7 +5807,7 @@
       <c r="BV52" s="4"/>
     </row>
     <row r="53" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="29"/>
       <c r="C53" s="33"/>
       <c r="D53" s="7"/>
@@ -6030,10 +6034,86 @@
       <c r="BU55" s="4"/>
       <c r="BV55" s="4"/>
     </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="D56" s="20">
-        <f>SUM(D3:D55)</f>
-        <v>6569670</v>
+    <row r="56" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+      <c r="AP56" s="4"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4"/>
+      <c r="AS56" s="4"/>
+      <c r="AT56" s="4"/>
+      <c r="AU56" s="4"/>
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="4"/>
+      <c r="AX56" s="4"/>
+      <c r="AY56" s="4"/>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4"/>
+      <c r="BC56" s="4"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+      <c r="BF56" s="4"/>
+      <c r="BG56" s="4"/>
+      <c r="BH56" s="4"/>
+      <c r="BI56" s="4"/>
+      <c r="BJ56" s="4"/>
+      <c r="BK56" s="4"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+      <c r="BS56" s="4"/>
+      <c r="BT56" s="4"/>
+      <c r="BU56" s="4"/>
+      <c r="BV56" s="4"/>
+    </row>
+    <row r="57" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="D57" s="20">
+        <f>SUM(D3:D56)</f>
+        <v>6573870</v>
       </c>
     </row>
   </sheetData>
@@ -6060,7 +6140,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:D6"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6142,7 +6222,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>59</v>
@@ -6967,7 +7047,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>9</v>
@@ -7058,10 +7138,10 @@
         <v>87</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>9</v>
@@ -9327,7 +9407,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39" x14ac:dyDescent="0.2">

--- a/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
+++ b/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06B078-66A2-4E01-A0F1-B422A36E2B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E27494-7C09-4EFB-962C-250DCCCEBA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="3950" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="2680" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023年ﾒﾝﾃﾅﾝｽ記録" sheetId="11" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3733,7 +3733,7 @@
         <v>114</v>
       </c>
       <c r="D26" s="7">
-        <v>27500</v>
+        <v>33000</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6113,7 +6113,7 @@
     <row r="57" spans="1:74" x14ac:dyDescent="0.2">
       <c r="D57" s="20">
         <f>SUM(D3:D56)</f>
-        <v>6573870</v>
+        <v>6579370</v>
       </c>
     </row>
   </sheetData>

--- a/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
+++ b/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E27494-7C09-4EFB-962C-250DCCCEBA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581F032-8A28-43E6-8754-09CADD17E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2680" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,12 +1721,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV57"/>
+  <dimension ref="A1:BV59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3647,8 +3647,12 @@
       <c r="BV24" s="4"/>
     </row>
     <row r="25" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="28">
+        <v>45205</v>
+      </c>
+      <c r="B25" s="29">
+        <v>660</v>
+      </c>
       <c r="C25" s="33" t="s">
         <v>118</v>
       </c>
@@ -3729,12 +3733,8 @@
     <row r="26" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
-      <c r="C26" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="7">
-        <v>33000</v>
-      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3809,18 +3809,10 @@
     <row r="27" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4200</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -3893,8 +3885,12 @@
     <row r="28" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="7">
+        <v>33000</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3970,13 +3966,17 @@
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
       <c r="C29" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+        <v>4200</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -4049,18 +4049,10 @@
     <row r="30" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4264</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -4133,8 +4125,8 @@
     <row r="31" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="34" t="s">
-        <v>119</v>
+      <c r="C31" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
@@ -4213,10 +4205,18 @@
     <row r="32" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4264</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -4289,8 +4289,12 @@
     <row r="33" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -4365,7 +4369,7 @@
     <row r="34" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="7"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -4973,7 +4977,7 @@
     <row r="42" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
       <c r="B42" s="29"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="7"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -5049,7 +5053,7 @@
     <row r="43" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="29"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -5125,7 +5129,7 @@
     <row r="44" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -5277,7 +5281,7 @@
     <row r="46" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="B46" s="29"/>
-      <c r="C46" s="33"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="7"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -5883,7 +5887,7 @@
       <c r="BV53" s="4"/>
     </row>
     <row r="54" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="29"/>
       <c r="C54" s="33"/>
       <c r="D54" s="7"/>
@@ -5959,7 +5963,7 @@
       <c r="BV54" s="4"/>
     </row>
     <row r="55" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="29"/>
       <c r="C55" s="33"/>
       <c r="D55" s="7"/>
@@ -6110,9 +6114,161 @@
       <c r="BU56" s="4"/>
       <c r="BV56" s="4"/>
     </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="D57" s="20">
-        <f>SUM(D3:D56)</f>
+    <row r="57" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+      <c r="AP57" s="4"/>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4"/>
+      <c r="AS57" s="4"/>
+      <c r="AT57" s="4"/>
+      <c r="AU57" s="4"/>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="4"/>
+      <c r="AX57" s="4"/>
+      <c r="AY57" s="4"/>
+      <c r="AZ57" s="4"/>
+      <c r="BA57" s="4"/>
+      <c r="BB57" s="4"/>
+      <c r="BC57" s="4"/>
+      <c r="BD57" s="4"/>
+      <c r="BE57" s="4"/>
+      <c r="BF57" s="4"/>
+      <c r="BG57" s="4"/>
+      <c r="BH57" s="4"/>
+      <c r="BI57" s="4"/>
+      <c r="BJ57" s="4"/>
+      <c r="BK57" s="4"/>
+      <c r="BL57" s="4"/>
+      <c r="BM57" s="4"/>
+      <c r="BN57" s="4"/>
+      <c r="BO57" s="4"/>
+      <c r="BP57" s="4"/>
+      <c r="BQ57" s="4"/>
+      <c r="BR57" s="4"/>
+      <c r="BS57" s="4"/>
+      <c r="BT57" s="4"/>
+      <c r="BU57" s="4"/>
+      <c r="BV57" s="4"/>
+    </row>
+    <row r="58" spans="1:74" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+      <c r="BH58" s="4"/>
+      <c r="BI58" s="4"/>
+      <c r="BJ58" s="4"/>
+      <c r="BK58" s="4"/>
+      <c r="BL58" s="4"/>
+      <c r="BM58" s="4"/>
+      <c r="BN58" s="4"/>
+      <c r="BO58" s="4"/>
+      <c r="BP58" s="4"/>
+      <c r="BQ58" s="4"/>
+      <c r="BR58" s="4"/>
+      <c r="BS58" s="4"/>
+      <c r="BT58" s="4"/>
+      <c r="BU58" s="4"/>
+      <c r="BV58" s="4"/>
+    </row>
+    <row r="59" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="D59" s="20">
+        <f>SUM(D3:D58)</f>
         <v>6579370</v>
       </c>
     </row>

--- a/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
+++ b/20230826　40系前期_アルファード_メンテナンスリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581F032-8A28-43E6-8754-09CADD17E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773854D1-768D-44C8-ACA5-35FA16B97177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2680" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,7 +1726,7 @@
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3651,7 +3651,7 @@
         <v>45205</v>
       </c>
       <c r="B25" s="29">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>118</v>
